--- a/InputData/trans/SYBSoEVP/Start Year Battery Share of EV Price.xlsx
+++ b/InputData/trans/SYBSoEVP/Start Year Battery Share of EV Price.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\SYBSoEVP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/WI/trans/SYBSoEVP/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C098646-5C49-1546-88C9-CB7C7BD66C44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="22035" windowHeight="11835"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="22040" windowHeight="11840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Battery Cost Share" sheetId="3" r:id="rId2"/>
     <sheet name="SYBSoEVP" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>EV Battery Cost / kWh</t>
   </si>
@@ -72,12 +84,15 @@
   </si>
   <si>
     <t>Share of Price (dimensionless)</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,6 +247,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -267,6 +299,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -442,24 +491,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="80.140625" customWidth="1"/>
+    <col min="2" max="2" width="80.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -467,42 +519,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -513,21 +565,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -538,7 +590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -549,7 +601,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -560,7 +612,7 @@
         <v>36620</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -579,7 +631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -589,17 +641,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>

--- a/InputData/trans/SYBSoEVP/Start Year Battery Share of EV Price.xlsx
+++ b/InputData/trans/SYBSoEVP/Start Year Battery Share of EV Price.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/WI/trans/SYBSoEVP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/trans/sybsoevp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C098646-5C49-1546-88C9-CB7C7BD66C44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28D27A5-67A8-8F43-B2AC-316D42202C62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="460" windowWidth="22040" windowHeight="11840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>EV Battery Cost / kWh</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>Share of Price (dimensionless)</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
   </si>
 </sst>
 </file>
@@ -144,7 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -153,6 +150,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -503,15 +501,15 @@
     <col min="2" max="2" width="80.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="6">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -519,42 +517,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
